--- a/pic/data.xlsx
+++ b/pic/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="446" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="891" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slave number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
@@ -39,18 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time-consuming(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rdma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>three</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slave number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time-consuming(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,13 +111,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,73 +405,76 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
         <v>174.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>259.89</v>
+      </c>
+      <c r="D6" s="3">
         <v>3.33</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
@@ -487,7 +490,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>174.3</v>
@@ -498,7 +501,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>259.89</v>

--- a/pic/data.xlsx
+++ b/pic/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="891" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="1337" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">one </t>
   </si>
@@ -65,6 +65,42 @@
   </si>
   <si>
     <t>RDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+      <selection activeCell="K13" sqref="I10:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -413,9 +449,10 @@
     <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.640625" customWidth="1"/>
+    <col min="10" max="10" width="13.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
@@ -424,7 +461,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -433,7 +470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -444,7 +481,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -455,7 +492,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -466,7 +503,40 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -476,8 +546,17 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>0</v>
       </c>
@@ -488,7 +567,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>2</v>
       </c>
@@ -499,7 +578,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>9</v>
       </c>

--- a/pic/data.xlsx
+++ b/pic/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">one </t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>RoCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,9 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -233,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1855,60 +1859,63 @@
     </row>
     <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>10.4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>345</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>5.87</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>334.33</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>3.94</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>341.1</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1916,16 +1923,16 @@
       <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>98</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>24</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>14.15</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="7">
         <v>2.8</v>
       </c>
     </row>

--- a/pic/data.xlsx
+++ b/pic/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">one </t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>RoCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Connection </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,6 +222,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,9 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:F41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1859,63 +1855,60 @@
     </row>
     <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>10.4</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>345</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>5.87</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>334.33</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>3.94</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>341.1</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1923,16 +1916,16 @@
       <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>98</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>24</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>14.15</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>2.8</v>
       </c>
     </row>

--- a/pic/data.xlsx
+++ b/pic/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t xml:space="preserve">one </t>
   </si>
@@ -131,6 +131,38 @@
   </si>
   <si>
     <t>time comsuming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file write time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K41"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,16 +1752,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1926,6 +1961,98 @@
         <v>14.15</v>
       </c>
       <c r="F41" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="8">
+        <v>97.21</v>
+      </c>
+      <c r="D48" s="8">
+        <v>24.06</v>
+      </c>
+      <c r="E48" s="8">
+        <v>24.14</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="8">
+        <v>13.52</v>
+      </c>
+      <c r="D49" s="2">
+        <v>13.36</v>
+      </c>
+      <c r="E49" s="2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="8">
+        <v>83.69</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <v>6.81</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2.58</v>
+      </c>
+      <c r="F54" s="8">
         <v>2.8</v>
       </c>
     </row>
